--- a/experiments/00_general/results/statistics/stats_cortisol_raw_within_ideal_bed_time.xlsx
+++ b/experiments/00_general/results/statistics/stats_cortisol_raw_within_ideal_bed_time.xlsx
@@ -176,49 +176,49 @@
     <t>two-sided</t>
   </si>
   <si>
-    <t>7.541e+20</t>
-  </si>
-  <si>
-    <t>7.402e+24</t>
-  </si>
-  <si>
-    <t>1.013e+17</t>
-  </si>
-  <si>
-    <t>2.657e+09</t>
-  </si>
-  <si>
-    <t>5.788e+10</t>
-  </si>
-  <si>
-    <t>1258.985</t>
-  </si>
-  <si>
-    <t>0.13</t>
-  </si>
-  <si>
-    <t>0.142</t>
-  </si>
-  <si>
-    <t>8120.352</t>
-  </si>
-  <si>
-    <t>1.549e+09</t>
-  </si>
-  <si>
-    <t>0.175</t>
-  </si>
-  <si>
-    <t>0.185</t>
-  </si>
-  <si>
-    <t>0.188</t>
-  </si>
-  <si>
-    <t>0.172</t>
-  </si>
-  <si>
-    <t>0.214</t>
+    <t>2.32e+21</t>
+  </si>
+  <si>
+    <t>4.067e+25</t>
+  </si>
+  <si>
+    <t>2.359e+17</t>
+  </si>
+  <si>
+    <t>3.177e+09</t>
+  </si>
+  <si>
+    <t>1.05e+11</t>
+  </si>
+  <si>
+    <t>1372.761</t>
+  </si>
+  <si>
+    <t>0.123</t>
+  </si>
+  <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>2.076e+04</t>
+  </si>
+  <si>
+    <t>5.4e+09</t>
+  </si>
+  <si>
+    <t>0.174</t>
+  </si>
+  <si>
+    <t>0.193</t>
+  </si>
+  <si>
+    <t>0.182</t>
+  </si>
+  <si>
+    <t>0.17</t>
+  </si>
+  <si>
+    <t>0.211</t>
   </si>
   <si>
     <t>Pairwise t-Tests</t>
@@ -672,10 +672,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.957</v>
+        <v>0.9611</v>
       </c>
       <c r="D3">
-        <v>0.0239</v>
+        <v>0.0325</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>0.9727</v>
+        <v>0.9734</v>
       </c>
       <c r="D5">
-        <v>0.1606</v>
+        <v>0.1532</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -736,10 +736,10 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>0.9568</v>
+        <v>0.9599</v>
       </c>
       <c r="D7">
-        <v>0.0233</v>
+        <v>0.0281</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -768,10 +768,10 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>0.9568</v>
+        <v>0.9572000000000001</v>
       </c>
       <c r="D9">
-        <v>0.0235</v>
+        <v>0.02</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0.9419</v>
       </c>
       <c r="D11">
-        <v>0.0043</v>
+        <v>0.0033</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -872,10 +872,10 @@
         <v>21</v>
       </c>
       <c r="C3">
-        <v>0.0027</v>
+        <v>0.009900000000000001</v>
       </c>
       <c r="D3">
-        <v>0.9585</v>
+        <v>0.9208</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -889,10 +889,10 @@
         <v>21</v>
       </c>
       <c r="C4">
-        <v>1.1167</v>
+        <v>1.8035</v>
       </c>
       <c r="D4">
-        <v>0.2922</v>
+        <v>0.1811</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -906,10 +906,10 @@
         <v>21</v>
       </c>
       <c r="C5">
-        <v>0.0038</v>
+        <v>0.0216</v>
       </c>
       <c r="D5">
-        <v>0.9509</v>
+        <v>0.8832</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -923,10 +923,10 @@
         <v>21</v>
       </c>
       <c r="C6">
-        <v>0.08260000000000001</v>
+        <v>0.1177</v>
       </c>
       <c r="D6">
-        <v>0.7742</v>
+        <v>0.7319</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -940,10 +940,10 @@
         <v>21</v>
       </c>
       <c r="C7">
-        <v>1.8982</v>
+        <v>2.089</v>
       </c>
       <c r="D7">
-        <v>0.1702</v>
+        <v>0.1502</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -1016,25 +1016,25 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>3.6983</v>
+        <v>5.3028</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F3">
-        <v>3.6983</v>
+        <v>5.3028</v>
       </c>
       <c r="G3">
-        <v>0.0381</v>
+        <v>0.0551</v>
       </c>
       <c r="H3">
-        <v>0.8456</v>
+        <v>0.8147</v>
       </c>
       <c r="J3">
-        <v>0.0002</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -1045,19 +1045,19 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>4008.1461</v>
+        <v>4063.2874</v>
       </c>
       <c r="D4">
         <v>4</v>
       </c>
       <c r="E4">
-        <v>656</v>
+        <v>668</v>
       </c>
       <c r="F4">
-        <v>1002.0365</v>
+        <v>1015.8218</v>
       </c>
       <c r="G4">
-        <v>66.4631</v>
+        <v>68.0325</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2884</v>
+        <v>0.2895</v>
       </c>
       <c r="K4">
-        <v>0.4905</v>
+        <v>0.4913</v>
       </c>
       <c r="L4" t="b">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.0978</v>
+        <v>0.1004</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1089,25 +1089,25 @@
         <v>36</v>
       </c>
       <c r="C5">
-        <v>24.0342</v>
+        <v>22.3087</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5">
-        <v>656</v>
+        <v>668</v>
       </c>
       <c r="F5">
-        <v>6.0086</v>
+        <v>5.5772</v>
       </c>
       <c r="G5">
-        <v>0.3985</v>
+        <v>0.3735</v>
       </c>
       <c r="H5">
-        <v>0.8098</v>
+        <v>0.8276</v>
       </c>
       <c r="J5">
-        <v>0.0024</v>
+        <v>0.0022</v>
       </c>
     </row>
   </sheetData>
@@ -1192,10 +1192,10 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>-11.9104</v>
+        <v>-12.0498</v>
       </c>
       <c r="I3">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J3" t="s">
         <v>51</v>
@@ -1207,7 +1207,7 @@
         <v>52</v>
       </c>
       <c r="M3">
-        <v>-0.8233</v>
+        <v>-0.8262</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -1236,10 +1236,10 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>-13.3572</v>
+        <v>-13.5737</v>
       </c>
       <c r="I4">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J4" t="s">
         <v>51</v>
@@ -1251,7 +1251,7 @@
         <v>53</v>
       </c>
       <c r="M4">
-        <v>-1.2209</v>
+        <v>-1.2263</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1280,10 +1280,10 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>-10.4929</v>
+        <v>-10.6019</v>
       </c>
       <c r="I5">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J5" t="s">
         <v>51</v>
@@ -1295,7 +1295,7 @@
         <v>54</v>
       </c>
       <c r="M5">
-        <v>-1.0977</v>
+        <v>-1.097</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1324,10 +1324,10 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>-7.5545</v>
+        <v>-7.5767</v>
       </c>
       <c r="I6">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J6" t="s">
         <v>51</v>
@@ -1339,7 +1339,7 @@
         <v>55</v>
       </c>
       <c r="M6">
-        <v>-0.8323</v>
+        <v>-0.8264</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1368,10 +1368,10 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>-8.1014</v>
+        <v>-8.192399999999999</v>
       </c>
       <c r="I7">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J7" t="s">
         <v>51</v>
@@ -1383,7 +1383,7 @@
         <v>56</v>
       </c>
       <c r="M7">
-        <v>-0.4315</v>
+        <v>-0.4373</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1412,10 +1412,10 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>-4.547</v>
+        <v>-4.5678</v>
       </c>
       <c r="I8">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J8" t="s">
         <v>51</v>
@@ -1427,7 +1427,7 @@
         <v>57</v>
       </c>
       <c r="M8">
-        <v>-0.3599</v>
+        <v>-0.3596</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1456,22 +1456,22 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>-0.9123</v>
+        <v>-0.8544</v>
       </c>
       <c r="I9">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J9" t="s">
         <v>51</v>
       </c>
       <c r="K9">
-        <v>0.363</v>
+        <v>0.3941</v>
       </c>
       <c r="L9" t="s">
         <v>58</v>
       </c>
       <c r="M9">
-        <v>-0.0843</v>
+        <v>-0.0784</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1500,22 +1500,22 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <v>1.0042</v>
+        <v>1.1264</v>
       </c>
       <c r="I10">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J10" t="s">
         <v>51</v>
       </c>
       <c r="K10">
-        <v>0.3167</v>
+        <v>0.2616</v>
       </c>
       <c r="L10" t="s">
         <v>59</v>
       </c>
       <c r="M10">
-        <v>0.0498</v>
+        <v>0.0552</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1544,10 +1544,10 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>4.9983</v>
+        <v>5.212</v>
       </c>
       <c r="I11">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J11" t="s">
         <v>51</v>
@@ -1559,7 +1559,7 @@
         <v>60</v>
       </c>
       <c r="M11">
-        <v>0.3229</v>
+        <v>0.3334</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1588,10 +1588,10 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>7.4568</v>
+        <v>7.6716</v>
       </c>
       <c r="I12">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J12" t="s">
         <v>51</v>
@@ -1603,7 +1603,7 @@
         <v>61</v>
       </c>
       <c r="M12">
-        <v>0.2611</v>
+        <v>0.2659</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1632,22 +1632,22 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>-0.2019</v>
+        <v>-0.2426</v>
       </c>
       <c r="I13">
-        <v>151.4855</v>
+        <v>158.5964</v>
       </c>
       <c r="J13" t="s">
         <v>51</v>
       </c>
       <c r="K13">
-        <v>0.8403</v>
+        <v>0.8086</v>
       </c>
       <c r="L13" t="s">
         <v>62</v>
       </c>
       <c r="M13">
-        <v>-0.0309</v>
+        <v>-0.0367</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1676,22 +1676,22 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <v>-0.4056</v>
+        <v>-0.5328000000000001</v>
       </c>
       <c r="I14">
-        <v>138.6758</v>
+        <v>147.3162</v>
       </c>
       <c r="J14" t="s">
         <v>51</v>
       </c>
       <c r="K14">
-        <v>0.6856</v>
+        <v>0.595</v>
       </c>
       <c r="L14" t="s">
         <v>63</v>
       </c>
       <c r="M14">
-        <v>-0.0639</v>
+        <v>-0.08260000000000001</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1720,22 +1720,22 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>0.4397</v>
+        <v>0.3916</v>
       </c>
       <c r="I15">
-        <v>153.0029</v>
+        <v>160.6074</v>
       </c>
       <c r="J15" t="s">
         <v>51</v>
       </c>
       <c r="K15">
-        <v>0.6608000000000001</v>
+        <v>0.6958</v>
       </c>
       <c r="L15" t="s">
         <v>64</v>
       </c>
       <c r="M15">
-        <v>0.067</v>
+        <v>0.0588</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1764,22 +1764,22 @@
         <v>1</v>
       </c>
       <c r="H16">
-        <v>0.0259</v>
+        <v>-0.0623</v>
       </c>
       <c r="I16">
-        <v>134.3165</v>
+        <v>142.385</v>
       </c>
       <c r="J16" t="s">
         <v>51</v>
       </c>
       <c r="K16">
-        <v>0.9794</v>
+        <v>0.9504</v>
       </c>
       <c r="L16" t="s">
         <v>65</v>
       </c>
       <c r="M16">
-        <v>0.0041</v>
+        <v>-0.0098</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1808,22 +1808,22 @@
         <v>1</v>
       </c>
       <c r="H17">
-        <v>-0.6899999999999999</v>
+        <v>-0.6867</v>
       </c>
       <c r="I17">
-        <v>138.269</v>
+        <v>146.3628</v>
       </c>
       <c r="J17" t="s">
         <v>51</v>
       </c>
       <c r="K17">
-        <v>0.4914</v>
+        <v>0.4934</v>
       </c>
       <c r="L17" t="s">
         <v>66</v>
       </c>
       <c r="M17">
-        <v>-0.1088</v>
+        <v>-0.1067</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1852,22 +1852,22 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <v>-0.1124</v>
+        <v>-0.052</v>
       </c>
       <c r="I18">
-        <v>152.7426</v>
+        <v>159.6463</v>
       </c>
       <c r="J18" t="s">
         <v>51</v>
       </c>
       <c r="K18">
-        <v>0.9106</v>
+        <v>0.9586</v>
       </c>
       <c r="L18" t="s">
         <v>65</v>
       </c>
       <c r="M18">
-        <v>-0.0171</v>
+        <v>-0.0078</v>
       </c>
       <c r="N18">
         <v>1</v>
